--- a/medicine/Enfance/Les_400_coups_(maison_d'édition)/Les_400_coups_(maison_d'édition).xlsx
+++ b/medicine/Enfance/Les_400_coups_(maison_d'édition)/Les_400_coups_(maison_d'édition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_400_coups_(maison_d%27%C3%A9dition)</t>
+          <t>Les_400_coups_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éditions Les 400 Coups sont une maison d'édition québécoise spécialisée en littérature jeunesse. Leurs albums sont disponibles au Canada et dans la francophonie européenne (France, Belgique, Suisse).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_400_coups_(maison_d%27%C3%A9dition)</t>
+          <t>Les_400_coups_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 400 Coups sont créés en 1995 à Montréal par Serge Théroux[1], directeur de diffusion Dimédia, et Pierre Belle, cofondateur de l’imprimerie Mille-Îles. En 2008, la maison d’édition est acquise par le groupe éditorial Caractère[2], qui est lui-même acheté en 2012 par les Éditions Transcontinental sans que Les 400 Coups ne fassent partie de la transaction[3]. En 2013, Simon de Jocas, ancien enseignant et conseiller pédagogique et représentant pour les Éditions Beauchemin[4], devient l’unique propriétaire et le directeur général de la maison Les 400 coups[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 400 Coups sont créés en 1995 à Montréal par Serge Théroux, directeur de diffusion Dimédia, et Pierre Belle, cofondateur de l’imprimerie Mille-Îles. En 2008, la maison d’édition est acquise par le groupe éditorial Caractère, qui est lui-même acheté en 2012 par les Éditions Transcontinental sans que Les 400 Coups ne fassent partie de la transaction. En 2013, Simon de Jocas, ancien enseignant et conseiller pédagogique et représentant pour les Éditions Beauchemin, devient l’unique propriétaire et le directeur général de la maison Les 400 coups.
 Avant le rachat par Simon de Jocas, Les 400 Coups possèdent plus de trente collections en jeunesse, adulte et bande dessinée. Les collections adultes sont, depuis 2013, produites par les Éditions Somme Toute. La même année, Mécanique Générale, qui était initialement une des collections de bandes dessinées, devient une maison d’édition indépendante. La collection « Coups de tête » a été quant à elle rachetée par les Éditions Tête Première.
-Depuis 2013, Les 400 Coups se recentrent sur les albums jeunesses, à destination des 0-12 ans. Ces ouvrages, jusqu’alors publiés dans vingt-sept collections différentes, sont maintenant répartis en six collections[1].
-En 2020, les 400 Coups remportent le prix BOP 2020 du meilleur éditeur jeunesse en Amérique du Nord de la Foire du livre jeunesse de Bologne[6].
+Depuis 2013, Les 400 Coups se recentrent sur les albums jeunesses, à destination des 0-12 ans. Ces ouvrages, jusqu’alors publiés dans vingt-sept collections différentes, sont maintenant répartis en six collections.
+En 2020, les 400 Coups remportent le prix BOP 2020 du meilleur éditeur jeunesse en Amérique du Nord de la Foire du livre jeunesse de Bologne.
 Les albums des 400 Coups sont distribués par le diffuseur-distributeur Dimédia au Canada et par le diffuseur-distributeur Interforum en Europe.
-Au fil de ses années d’activité, la maison a publié des créateurs et créatrices de renom tels que Manon Gauthier, François Gravel, Isabelle Arsenault, Michaël Escoffier et Élise Gravel, pour n’en nommer que quelques-uns[7].
+Au fil de ses années d’activité, la maison a publié des créateurs et créatrices de renom tels que Manon Gauthier, François Gravel, Isabelle Arsenault, Michaël Escoffier et Élise Gravel, pour n’en nommer que quelques-uns.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_400_coups_(maison_d%27%C3%A9dition)</t>
+          <t>Les_400_coups_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison d'édition compte actuellement sept collections. La collection Carré-Blanc regroupe des livres engagés aux thématiques variées (la guerre, la violence conjugale, la mort, etc.)[8] Grimace présente quant à elle des albums à l'humour irrévérencieux[9], alors que la collection Hop là! mise sur des livres hors normes, originaux et des coups de cœur. La collection Mes premiers coups est destinée aux 0-3 ans, avec des albums humoristiques tout carton[9]. Mémoire d'images met en lumière des albums historiques qui racontent le passé à partir de photos d'archives. La collection 400 coups rassemble des albums d'ici ou d'ailleurs, ainsi que les albums des anciennes collections de la maison d'édition, avant son acquisition par Simon de Jocas.
-La maison lance en 2021 la collection Les grandes voix, qui met en images des textes porteurs de sens, atypiques et étonnants. Chaque texte de cette collection est associé à un illustrateur qui présente sa vision personnelle de l'œuvre[10]. Les auteurs David Goudreault et Raymond Lévesque inaugurent cette nouvelle collection avec les albums J'en appelle à la poésie et Quand les hommes vivront d'amour, respectivement illustrés par Laurent Pinabel et Pierre Pratt.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison d'édition compte actuellement sept collections. La collection Carré-Blanc regroupe des livres engagés aux thématiques variées (la guerre, la violence conjugale, la mort, etc.) Grimace présente quant à elle des albums à l'humour irrévérencieux, alors que la collection Hop là! mise sur des livres hors normes, originaux et des coups de cœur. La collection Mes premiers coups est destinée aux 0-3 ans, avec des albums humoristiques tout carton. Mémoire d'images met en lumière des albums historiques qui racontent le passé à partir de photos d'archives. La collection 400 coups rassemble des albums d'ici ou d'ailleurs, ainsi que les albums des anciennes collections de la maison d'édition, avant son acquisition par Simon de Jocas.
+La maison lance en 2021 la collection Les grandes voix, qui met en images des textes porteurs de sens, atypiques et étonnants. Chaque texte de cette collection est associé à un illustrateur qui présente sa vision personnelle de l'œuvre. Les auteurs David Goudreault et Raymond Lévesque inaugurent cette nouvelle collection avec les albums J'en appelle à la poésie et Quand les hommes vivront d'amour, respectivement illustrés par Laurent Pinabel et Pierre Pratt.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_400_coups_(maison_d%27%C3%A9dition)</t>
+          <t>Les_400_coups_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison d’édition jouit d’une bonne réputation à l’international. Elle a obtenu en 2020 le prix du meilleur éditeur jeunesse d’Amérique du Nord, remis lors de la Foire internationale du livre jeunesse de Bologne[11]. Cette foire consacrée à la littérature jeunesse est la plus importante au monde. De nombreux albums de la maison ont été traduits dans différentes langues, dont l’anglais, l’espagnol, le coréen, l’ukrainien et le népalais[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison d’édition jouit d’une bonne réputation à l’international. Elle a obtenu en 2020 le prix du meilleur éditeur jeunesse d’Amérique du Nord, remis lors de la Foire internationale du livre jeunesse de Bologne. Cette foire consacrée à la littérature jeunesse est la plus importante au monde. De nombreux albums de la maison ont été traduits dans différentes langues, dont l’anglais, l’espagnol, le coréen, l’ukrainien et le népalais.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_400_coups_(maison_d%27%C3%A9dition)</t>
+          <t>Les_400_coups_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Principaux prix littéraires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix du Gouverneur général : littérature jeunesse de langue française - illustration
 1997 : Danielle Marcotte, Stéphane Poulin, Poil de serpent, dent d'araignée
@@ -621,14 +641,14 @@
 2004 : Marie-Francine Hébert, Janice Nadeau, Nul poisson où aller
 2005 : Marie-Danielle Croteau, Isabelle Arsenault, Le Cœur de monsieur Gauguin
 2007 : Danielle Simard, Geneviève Côté, La Petite Rapporteuse de mots
-2020 : Finaliste, Valérie Fontaine, Nathalie Dion, Le grand méchant loup dans ma maison[12]
-2021 : Finaliste, François Gravel, Laurent Pinabel, La langue au chat et autres poèmes pas bêtes[13]
-2022 : Finaliste, Orbie, La fin des poux[14]
+2020 : Finaliste, Valérie Fontaine, Nathalie Dion, Le grand méchant loup dans ma maison
+2021 : Finaliste, François Gravel, Laurent Pinabel, La langue au chat et autres poèmes pas bêtes
+2022 : Finaliste, Orbie, La fin des poux
 Prix TD de littérature canadienne pour l’enfance et la jeunesse
 2007 : André Leblanc, L’Envers de la chanson
 2009 : Anne Villeneuve, Chère Traudi
-2022 : Finaliste, Orbie, La fin des poux[15]
-2022 : Finaliste, Hugo Léger, Julie Rocheleau, Les devoirs d’Edmond[15]
+2022 : Finaliste, Orbie, La fin des poux
+2022 : Finaliste, Hugo Léger, Julie Rocheleau, Les devoirs d’Edmond
 Prix du livre M. Christie
 Catégorie 7 ans et moins
 1996 : Danielle Marcotte, Stéphane Poulin, Poil de serpent, dent d’araignée
@@ -650,27 +670,27 @@
 2004 : Francine P. Caron, Nicole Claveloux, Mon Gugus à moi
 2013 : Valérie Boivin, Un après-midi chez Jules
 2016 : Julie Pearson, Manon Gauthier, Elliot
-2019 : Finaliste, Anne-Marie Gagnon, Yves Dumont, Une visite inattendue[16]
-2019 : Finaliste, May Sansregret, Richard Écrapou, L'attaque de la noiceur[16]
-2021 : Finaliste, Roxane Brouillard, Giulia Sagramola, Mon chien banane[17]
-2021 : Finaliste, Andrée-Anne Cyr, Bérengère Delaporte, Je t'aimais déjà[17]
+2019 : Finaliste, Anne-Marie Gagnon, Yves Dumont, Une visite inattendue
+2019 : Finaliste, May Sansregret, Richard Écrapou, L'attaque de la noiceur
+2021 : Finaliste, Roxane Brouillard, Giulia Sagramola, Mon chien banane
+2021 : Finaliste, Andrée-Anne Cyr, Bérengère Delaporte, Je t'aimais déjà
 Prix des libraires du Québec
 Catégorie 0-5 ans Québec
 2016 : Finaliste, Michaël Escoffier, PisHier, Au voleur
 2015 : Gagnant, Pierrette Dubé, Orbie, La Petite Truie, le vélo et la lune
-2020 : Finaliste, Orbie, La corde à linge[18]
-2021 : Liste préliminaire, Roxane Brouillard, Giulia Sagramola, Mon chien banane[19]
-2023 : Liste préliminaire, Élodie Duhameau, Le croco qui vit chez papi[20]
+2020 : Finaliste, Orbie, La corde à linge
+2021 : Liste préliminaire, Roxane Brouillard, Giulia Sagramola, Mon chien banane
+2023 : Liste préliminaire, Élodie Duhameau, Le croco qui vit chez papi
 Catégorie 0-5 ans Hors Québec
-2021 : Liste préliminaire, Jean-Baptiste Drouot, Va chercher le pain[19]
-2022 : Gagnant, Meritxell Mart, Xavier Salom, Sous les vagues[21]
+2021 : Liste préliminaire, Jean-Baptiste Drouot, Va chercher le pain
+2022 : Gagnant, Meritxell Mart, Xavier Salom, Sous les vagues
 Catégorie 6-11 ans Québec
-2021 : Liste préliminaire, Valérie Fontaine, Nathalie Dion, Le grand méchant loup dans ma maison[19]
-2023 : Liste préliminaire, Roxane Brouillard, Giulia Sagramola, As-tu vu ma bicyclette?[20]
+2021 : Liste préliminaire, Valérie Fontaine, Nathalie Dion, Le grand méchant loup dans ma maison
+2023 : Liste préliminaire, Roxane Brouillard, Giulia Sagramola, As-tu vu ma bicyclette?
 Catégorie 6-10 ans Hors Québec
 2016 : Finaliste, Gonzalo Moure, Alicia Varela, Le Hareng rouge
 2016 : Finaliste, Thomas Scotto, Barroux, Une guerre pour moi
-2023 : Liste préliminaire, Nikola Huppertz, Tobias Krejtschi, Maman est une fée[20]
+2023 : Liste préliminaire, Nikola Huppertz, Tobias Krejtschi, Maman est une fée
 Prix Québec-Wallonie-Bruxelles de littérature de jeunesse
 2000 : Anne Villeneuve, L’Écharpe rouge, catégorie Album couleur
 2007 :  Pierrette Dubé, Caroline Hamel, Maman s'est perdue, catégorie Jeune public de 6 à 9 ans
@@ -697,24 +717,24 @@
 2022 : Finaliste, Hugo Léger, Julie Rocheleau, Les devoirs d'Edmond
 2023 : Finaliste, Annie Bacon, Louise Laurent, De la beauté
 Prix Harry Black
-2017 : Finaliste, Élise Gravel, N'importe quoi![22]
-2021 : Finaliste, François Blais, Valérie Boivin, L'horoscope[23]
-2021 : Finaliste, Valérie Fontaine, Nathalie Dion, Le grand méchant loup dans ma maison[23]
+2017 : Finaliste, Élise Gravel, N'importe quoi!
+2021 : Finaliste, François Blais, Valérie Boivin, L'horoscope
+2021 : Finaliste, Valérie Fontaine, Nathalie Dion, Le grand méchant loup dans ma maison
 Prix Peuplier
-2017 : Finaliste, Rhéa Dufresne, Philippe Béha, Sauve-qui-peut l'été[24]
-2017 : Finaliste, Marie-Francine Hébert, Guillaume Perreault, Le Bedon de madame Loubidou[24]
-2017 : Finaliste, Pierrette Dubé, Aurélie Grand, Le Ballon d'Émilio[24]
-2018 : Finaliste, François Blais, Valérie Boivin, 752 Lapins[25]
-2019 : Finaliste, Anne-Marie Rioux, Yves Dumont, Une visite inattendue[26]
-2020 : Finaliste, Mélanie Fortin, Philippe Béha, Léonard, le mouton qui ne voulait pas être tricoté[27]
-2021 : Finaliste, Katia Canciani, Antoine Déprez, Sofia et le marchand ambulant[28]
-2021 : Finaliste, Roxane Brouillard, Giulia Sagramola, Mon chien banane[28]
-2022 : Finaliste, Orbie, La morve au nez[29]
+2017 : Finaliste, Rhéa Dufresne, Philippe Béha, Sauve-qui-peut l'été
+2017 : Finaliste, Marie-Francine Hébert, Guillaume Perreault, Le Bedon de madame Loubidou
+2017 : Finaliste, Pierrette Dubé, Aurélie Grand, Le Ballon d'Émilio
+2018 : Finaliste, François Blais, Valérie Boivin, 752 Lapins
+2019 : Finaliste, Anne-Marie Rioux, Yves Dumont, Une visite inattendue
+2020 : Finaliste, Mélanie Fortin, Philippe Béha, Léonard, le mouton qui ne voulait pas être tricoté
+2021 : Finaliste, Katia Canciani, Antoine Déprez, Sofia et le marchand ambulant
+2021 : Finaliste, Roxane Brouillard, Giulia Sagramola, Mon chien banane
+2022 : Finaliste, Orbie, La morve au nez
 Prix Tamarac
-2022 : Finaliste, André Leblanc, Louis Riel et le pays improbable[30]
+2022 : Finaliste, André Leblanc, Louis Riel et le pays improbable
 Prix AQPF-ANEL
 2017 : Gagnant, Catherine Buquet, Marion Arbona, Sous le parapluie
-2019 : Finaliste, Claudie Stanké, Barroux, Ça suffit[31]
+2019 : Finaliste, Claudie Stanké, Barroux, Ça suffit
 Prix Chen Bochui International Children's Literature Awards
 2016 : Gagnant, Thomas Scotto, Barroux, Une guerre pour moi
 Nami Concours
@@ -725,10 +745,10 @@
 Prix Hubert Reeves
 2019 : Finaliste, Élise Gravel, Le fan club des champignons
 Prix du livre jeunesse de bibliothèques de Montréal
-2020 : Finaliste, Pierrette Dubé, Audrey Malo, Les fables extravagantes de Conrad le corbeau[32]
+2020 : Finaliste, Pierrette Dubé, Audrey Malo, Les fables extravagantes de Conrad le corbeau
 2021 : Finaliste, Roxane Brouillard, Giulia Sagramola, Mon chien banane
 2021 : Finaliste, Valérie Fontaine, Nathalie Dion, Le grand méchant loup dans ma maison
-2022 : Gagnant, Orbie, La fin de poux[33]</t>
+2022 : Gagnant, Orbie, La fin de poux</t>
         </is>
       </c>
     </row>
